--- a/fb_task.xlsx
+++ b/fb_task.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>窗口文件id</t>
   </si>
@@ -36,9 +36,6 @@
     <t>https://www.facebook.com/Teapot-Woye-101842359168022/?ref=pages_you_manage</t>
   </si>
   <si>
-    <t>https://www.facebook.com/groups/mustang50yars</t>
-  </si>
-  <si>
     <t>Q:\fb_task\05\20\2022052012</t>
   </si>
 </sst>
@@ -47,12 +44,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,44 +59,77 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -107,38 +137,6 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -150,14 +148,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -199,7 +189,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,13 +217,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,163 +391,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,9 +407,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -439,17 +431,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,13 +488,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,154 +507,157 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1017,7 +1010,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="$A3:$XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -1046,14 +1039,11 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/fb_task.xlsx
+++ b/fb_task.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16545" windowHeight="10710"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>窗口文件id</t>
   </si>
@@ -30,6 +30,9 @@
     <t>图片及文本文件夹路径</t>
   </si>
   <si>
+    <t>账号昵称</t>
+  </si>
+  <si>
     <t>2c996b3780da3aea0180df2acc854d0c</t>
   </si>
   <si>
@@ -38,16 +41,19 @@
   <si>
     <t>Q:\fb_task\05\20\2022052012</t>
   </si>
+  <si>
+    <t>Sheridan</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -59,67 +65,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,6 +147,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -172,6 +179,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -179,17 +194,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,13 +217,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -229,49 +331,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,7 +361,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,84 +391,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -380,18 +398,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,13 +411,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -433,9 +443,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -459,7 +471,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -468,7 +480,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,17 +500,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,10 +516,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -522,133 +528,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1007,13 +1013,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="$A3:$XFD16"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="32.5" customWidth="1"/>
     <col min="2" max="2" width="30.625" customWidth="1"/>
@@ -1021,7 +1027,7 @@
     <col min="4" max="4" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1034,16 +1040,22 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
